--- a/data/trans_orig/P16A04-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7196</v>
+        <v>7247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20820</v>
+        <v>20164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0221359651507398</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0123195372186126</v>
+        <v>0.01240578096525299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03564253405474679</v>
+        <v>0.03451975310581474</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>23676</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14859</v>
+        <v>15482</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34874</v>
+        <v>34371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02566981600624379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01610990210465194</v>
+        <v>0.01678554205002598</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03781032707166807</v>
+        <v>0.03726540941679583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -786,19 +786,19 @@
         <v>36607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26140</v>
+        <v>26282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49950</v>
+        <v>50260</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02429955148733862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01735190664947681</v>
+        <v>0.0174461721547268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03315675289524753</v>
+        <v>0.03336274865510337</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>571210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>563321</v>
+        <v>563977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576945</v>
+        <v>576894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9778640348492602</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9643574659452532</v>
+        <v>0.9654802468941855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9876804627813874</v>
+        <v>0.9875942190347471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>862</v>
@@ -836,19 +836,19 @@
         <v>898657</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>887459</v>
+        <v>887962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>907474</v>
+        <v>906851</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9743301839937563</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9621896729283317</v>
+        <v>0.9627345905832042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.983890097895348</v>
+        <v>0.983214457949974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1422</v>
@@ -857,19 +857,19 @@
         <v>1469867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1456524</v>
+        <v>1456214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1480334</v>
+        <v>1480192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9757004485126614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9668432471047523</v>
+        <v>0.9666372513448965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9826480933505232</v>
+        <v>0.9825538278452731</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15360</v>
+        <v>15169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34210</v>
+        <v>35442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02162100581375151</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01425028109338646</v>
+        <v>0.01407288510211615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03173738706621076</v>
+        <v>0.03288055708234112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>19124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12477</v>
+        <v>10971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28909</v>
+        <v>29257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01808336356955937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01179806796488855</v>
+        <v>0.01037444204846604</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02733650104935019</v>
+        <v>0.02766523956276068</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -1003,19 +1003,19 @@
         <v>42429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31213</v>
+        <v>31167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55956</v>
+        <v>56955</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01986904599850686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01461677722322514</v>
+        <v>0.01459499386712223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02620340940623048</v>
+        <v>0.02667131185731432</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1054589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1043684</v>
+        <v>1042452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1062534</v>
+        <v>1062725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9783789941862485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9682626129337892</v>
+        <v>0.9671194429176587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9857497189066136</v>
+        <v>0.9859271148978839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1010</v>
@@ -1053,19 +1053,19 @@
         <v>1038414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028629</v>
+        <v>1028281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1045061</v>
+        <v>1046567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9819166364304406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9726634989506499</v>
+        <v>0.9723347604372394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9882019320351115</v>
+        <v>0.989625557951534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2041</v>
@@ -1074,19 +1074,19 @@
         <v>2093003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2079476</v>
+        <v>2078477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2104219</v>
+        <v>2104265</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801309540014932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9737965905937696</v>
+        <v>0.9733286881426856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9853832227767747</v>
+        <v>0.9854050061328776</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14261</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7636</v>
+        <v>7584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23568</v>
+        <v>24130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01272648278408061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006814267149125133</v>
+        <v>0.006767630912055047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0210317043513905</v>
+        <v>0.02153393644505995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1199,19 +1199,19 @@
         <v>22460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14909</v>
+        <v>14457</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33279</v>
+        <v>34076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02259647906024384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01499983755011824</v>
+        <v>0.01454489419174414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03348222650039473</v>
+        <v>0.03428410698108095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>36721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25602</v>
+        <v>26020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49291</v>
+        <v>52087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01736592818838456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01210762936762274</v>
+        <v>0.01230532116913147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0233107892462355</v>
+        <v>0.02463319795181214</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1106315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1097008</v>
+        <v>1096446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1112940</v>
+        <v>1112992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9872735172159194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9789682956486095</v>
+        <v>0.9784660635549403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931857328508749</v>
+        <v>0.9932323690879451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>959</v>
@@ -1270,19 +1270,19 @@
         <v>971480</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>960661</v>
+        <v>959864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>979031</v>
+        <v>979483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9774035209397561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9665177734996052</v>
+        <v>0.9657158930189189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9850001624498816</v>
+        <v>0.9854551058082559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2048</v>
@@ -1291,19 +1291,19 @@
         <v>2077795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2065225</v>
+        <v>2062429</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2088914</v>
+        <v>2088496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9826340718116154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9766892107537646</v>
+        <v>0.9753668020481878</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9878923706323774</v>
+        <v>0.9876946788308685</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3046</v>
+        <v>3433</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14419</v>
+        <v>15588</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01652153720187959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006810463608803087</v>
+        <v>0.007676718572531729</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03224378004230213</v>
+        <v>0.03485647117296291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1416,19 +1416,19 @@
         <v>5463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1980</v>
+        <v>1865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11137</v>
+        <v>11514</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01601407744376365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005804518775143467</v>
+        <v>0.005466648806412962</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03264410567945947</v>
+        <v>0.03374972056907254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1437,19 +1437,19 @@
         <v>12852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6579</v>
+        <v>6835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20267</v>
+        <v>20565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01630193636578419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008345177058188066</v>
+        <v>0.008670169728335678</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02570819114325433</v>
+        <v>0.02608617221734324</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>439812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>432781</v>
+        <v>431612</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>444154</v>
+        <v>443767</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9834784627981205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.967756219957698</v>
+        <v>0.9651435288270378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931895363911969</v>
+        <v>0.9923232814274683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -1487,19 +1487,19 @@
         <v>335695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>330021</v>
+        <v>329644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339178</v>
+        <v>339293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9839859225562363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9673558943205404</v>
+        <v>0.9662502794309276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9941954812248563</v>
+        <v>0.994533351193587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>762</v>
@@ -1508,19 +1508,19 @@
         <v>775506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>768091</v>
+        <v>767793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>781779</v>
+        <v>781523</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9836980636342159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9742918088567457</v>
+        <v>0.9739138277826568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991654822941812</v>
+        <v>0.9913298302716643</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>57885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44063</v>
+        <v>44545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74307</v>
+        <v>74523</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01792213240816471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01364263406615965</v>
+        <v>0.01379186884763797</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02300649267492474</v>
+        <v>0.02307340334577932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1633,19 +1633,19 @@
         <v>70723</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55161</v>
+        <v>55414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87488</v>
+        <v>90694</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0213343888759695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01663992354495773</v>
+        <v>0.01671616156768511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02639170687200244</v>
+        <v>0.02735887366868162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -1654,19 +1654,19 @@
         <v>128608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107256</v>
+        <v>107612</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153286</v>
+        <v>153803</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01965046000538329</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01638802027924794</v>
+        <v>0.01644236409507699</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02342116791132134</v>
+        <v>0.02350006944708195</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3171926</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3155504</v>
+        <v>3155288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3185748</v>
+        <v>3185266</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9820778675918352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9769935073250751</v>
+        <v>0.9769265966542208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9863573659338398</v>
+        <v>0.9862081311523621</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3164</v>
@@ -1704,19 +1704,19 @@
         <v>3244246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3227481</v>
+        <v>3224275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3259808</v>
+        <v>3259555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9786656111240305</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9736082931279976</v>
+        <v>0.9726411263313183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9833600764550422</v>
+        <v>0.9832838384323148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6273</v>
@@ -1725,19 +1725,19 @@
         <v>6416172</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6391494</v>
+        <v>6390977</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6437524</v>
+        <v>6437168</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9803495399946167</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9765788320886787</v>
+        <v>0.9764999305529179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9836119797207523</v>
+        <v>0.983557635904923</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>26091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17036</v>
+        <v>17220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40010</v>
+        <v>39402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02511303148157405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01639805821356185</v>
+        <v>0.01657501244489363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03851070160350498</v>
+        <v>0.03792598693185353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2090,19 +2090,19 @@
         <v>37447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26215</v>
+        <v>26452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50766</v>
+        <v>52487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03362382594036632</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02353853352095947</v>
+        <v>0.02375117855766691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04558216500422309</v>
+        <v>0.04712806405133182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2111,19 +2111,19 @@
         <v>63538</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48745</v>
+        <v>47328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82035</v>
+        <v>81015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02951628017046536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02264408477530144</v>
+        <v>0.02198591050581977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03810885450396368</v>
+        <v>0.03763502886310385</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1012832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>998913</v>
+        <v>999521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1021887</v>
+        <v>1021703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9748869685184259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9614892983964949</v>
+        <v>0.9620740130681462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836019417864381</v>
+        <v>0.9834249875551063</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>993</v>
@@ -2161,19 +2161,19 @@
         <v>1076269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1062950</v>
+        <v>1061229</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1087501</v>
+        <v>1087264</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9663761740596337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9544178349957769</v>
+        <v>0.9528719359486683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9764614664790405</v>
+        <v>0.9762488214423334</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1944</v>
@@ -2182,19 +2182,19 @@
         <v>2089101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2070604</v>
+        <v>2071624</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2103894</v>
+        <v>2105311</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9704837198295346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9618911454960364</v>
+        <v>0.9623649711368961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9773559152246986</v>
+        <v>0.9780140894941802</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>29071</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18773</v>
+        <v>19368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42275</v>
+        <v>42957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02983064412889506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01926322096226258</v>
+        <v>0.01987436079631853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04338032414641309</v>
+        <v>0.04407951566130706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -2307,19 +2307,19 @@
         <v>29788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20903</v>
+        <v>20859</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41565</v>
+        <v>41449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02724827116794895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01912095859564878</v>
+        <v>0.01908067730727504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03802098165058495</v>
+        <v>0.03791489000303527</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -2328,19 +2328,19 @@
         <v>58859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44304</v>
+        <v>44529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78554</v>
+        <v>78767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02846534304046047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02142633343258053</v>
+        <v>0.02153509645112477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03799034827659943</v>
+        <v>0.03809309216769732</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>945458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932254</v>
+        <v>931572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>955756</v>
+        <v>955161</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.970169355871105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.956619675853587</v>
+        <v>0.955920484338693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9807367790377377</v>
+        <v>0.9801256392036816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>990</v>
@@ -2378,19 +2378,19 @@
         <v>1063431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1051654</v>
+        <v>1051770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1072316</v>
+        <v>1072360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9727517288320511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9619790183494152</v>
+        <v>0.9620851099969637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9808790414043513</v>
+        <v>0.9809193226927246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1887</v>
@@ -2399,19 +2399,19 @@
         <v>2008889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1989194</v>
+        <v>1988981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2023444</v>
+        <v>2023219</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9715346569595396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9620096517234007</v>
+        <v>0.9619069078323026</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9785736665674195</v>
+        <v>0.9784649035488751</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>32875</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21759</v>
+        <v>22652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45391</v>
+        <v>46328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03718147165810238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02460910799917653</v>
+        <v>0.02561868973727333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05133646360348232</v>
+        <v>0.05239586226260049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2524,19 +2524,19 @@
         <v>18082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11119</v>
+        <v>11100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28854</v>
+        <v>28104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02071652163957224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01273867874727627</v>
+        <v>0.01271756349204912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03305764755464782</v>
+        <v>0.03219916208711945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -2545,19 +2545,19 @@
         <v>50957</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37904</v>
+        <v>37642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68895</v>
+        <v>69080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02900221541803258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02157306067326089</v>
+        <v>0.02142400282394056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03921153829908856</v>
+        <v>0.03931688804595159</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>851310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>838794</v>
+        <v>837857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>862426</v>
+        <v>861533</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9628185283418976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9486635363965178</v>
+        <v>0.9476041377373996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753908920008234</v>
+        <v>0.9743813102627268</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>801</v>
@@ -2595,19 +2595,19 @@
         <v>854745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>843973</v>
+        <v>844723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>861708</v>
+        <v>861727</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9792834783604277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9669423524453522</v>
+        <v>0.9678008379128806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9872613212527237</v>
+        <v>0.9872824365079509</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1600</v>
@@ -2616,19 +2616,19 @@
         <v>1706055</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1688117</v>
+        <v>1687932</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1719108</v>
+        <v>1719370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9709977845819674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9607884617009119</v>
+        <v>0.9606831119540484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784269393267392</v>
+        <v>0.9785759971760593</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>8769</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3550</v>
+        <v>3143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19294</v>
+        <v>19318</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01750805794051641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007088151087889996</v>
+        <v>0.006276073516273246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03852317666139065</v>
+        <v>0.03857215647095138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -2741,19 +2741,19 @@
         <v>16000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8642</v>
+        <v>8804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25489</v>
+        <v>25943</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03548686806044778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01916770657364408</v>
+        <v>0.01952763941053387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05653353462586573</v>
+        <v>0.05753973586098415</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -2762,19 +2762,19 @@
         <v>24768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14873</v>
+        <v>15936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37703</v>
+        <v>39368</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0260255312848069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01562760385203863</v>
+        <v>0.01674465212549009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03961657495079274</v>
+        <v>0.04136580592736609</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>492062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481537</v>
+        <v>481513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497281</v>
+        <v>497688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9824919420594835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9614768233386097</v>
+        <v>0.9614278435290492</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.99291184891211</v>
+        <v>0.9937239264837268</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>396</v>
@@ -2812,19 +2812,19 @@
         <v>434868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>425379</v>
+        <v>424925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442226</v>
+        <v>442064</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9645131319395522</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9434664653741343</v>
+        <v>0.9424602641390161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.980832293426356</v>
+        <v>0.9804723605894662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>850</v>
@@ -2833,19 +2833,19 @@
         <v>926931</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913996</v>
+        <v>912331</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>936826</v>
+        <v>935763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9739744687151931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9603834250492074</v>
+        <v>0.9586341940726339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9843723961479615</v>
+        <v>0.98325534787451</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>96805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77385</v>
+        <v>76505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121206</v>
+        <v>119292</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02848495624345942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02277054255202577</v>
+        <v>0.02251157766782223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03566496143830112</v>
+        <v>0.03510159613655373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -2958,19 +2958,19 @@
         <v>101318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81475</v>
+        <v>83025</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122746</v>
+        <v>124183</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02869673457730606</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02307665592184891</v>
+        <v>0.02351571075326191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03476614696068586</v>
+        <v>0.03517293472624917</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -2979,19 +2979,19 @@
         <v>198123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>170921</v>
+        <v>169521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231356</v>
+        <v>229306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0285928650652158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02466716901537672</v>
+        <v>0.0244650578491796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03338897875177871</v>
+        <v>0.03309322174363385</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3301664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3277263</v>
+        <v>3279177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3321084</v>
+        <v>3321964</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9715150437565406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9643350385616988</v>
+        <v>0.9648984038634459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9772294574479741</v>
+        <v>0.9774884223321776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3180</v>
@@ -3029,19 +3029,19 @@
         <v>3429312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3407884</v>
+        <v>3406447</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3449155</v>
+        <v>3447605</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.971303265422694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9652338530393142</v>
+        <v>0.9648270652737513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9769233440781513</v>
+        <v>0.9764842892467381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6281</v>
@@ -3050,19 +3050,19 @@
         <v>6730976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6697743</v>
+        <v>6699793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6758178</v>
+        <v>6759578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9714071349347843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9666110212482211</v>
+        <v>0.9669067782563661</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9753328309846226</v>
+        <v>0.9755349421508204</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>31059</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21125</v>
+        <v>20370</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43450</v>
+        <v>43968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02753445895598743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01872755596449562</v>
+        <v>0.0180583021529174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03851966293795432</v>
+        <v>0.03897896688288338</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -3415,19 +3415,19 @@
         <v>38711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27692</v>
+        <v>27505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52817</v>
+        <v>52534</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03073371218607317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02198547632869462</v>
+        <v>0.02183692056185972</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04193304300985957</v>
+        <v>0.0417083321732408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -3436,19 +3436,19 @@
         <v>69770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53628</v>
+        <v>52959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88313</v>
+        <v>87678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02922223109033055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02246146552591954</v>
+        <v>0.02218116471211386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03698866572481015</v>
+        <v>0.03672304591411426</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1096938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1084547</v>
+        <v>1084029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1106872</v>
+        <v>1107627</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9724655410440126</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9614803370620451</v>
+        <v>0.9610210331171167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812724440355043</v>
+        <v>0.9819416978470827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1152</v>
@@ -3486,19 +3486,19 @@
         <v>1220850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1206744</v>
+        <v>1207027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1231869</v>
+        <v>1232056</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9692662878139269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9580669569901404</v>
+        <v>0.9582916678267592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9780145236713056</v>
+        <v>0.9781630794381403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2190</v>
@@ -3507,19 +3507,19 @@
         <v>2317788</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2299245</v>
+        <v>2299880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2333930</v>
+        <v>2334599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9707777689096695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9630113342751898</v>
+        <v>0.9632769540858858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9775385344740805</v>
+        <v>0.9778188352878862</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>11518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6121</v>
+        <v>5719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20958</v>
+        <v>19820</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01267396128758418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006735045503478716</v>
+        <v>0.006292693430944533</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0230602971948361</v>
+        <v>0.02180783843440246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3632,19 +3632,19 @@
         <v>16146</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9260</v>
+        <v>9276</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27275</v>
+        <v>27164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01604181655015584</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009200652128851038</v>
+        <v>0.009216811334852967</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02709973280415386</v>
+        <v>0.02698907223731603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -3653,19 +3653,19 @@
         <v>27664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18051</v>
+        <v>18159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41082</v>
+        <v>39612</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.014443743040195</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009424558340869244</v>
+        <v>0.009481191850031559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02144932182776869</v>
+        <v>0.02068173216955041</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>897307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887867</v>
+        <v>889005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>902704</v>
+        <v>903106</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873260387124159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9769397028051641</v>
+        <v>0.9781921615655975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932649544965213</v>
+        <v>0.9937073065690555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>937</v>
@@ -3703,19 +3703,19 @@
         <v>990329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>979200</v>
+        <v>979311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997215</v>
+        <v>997199</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9839581834498442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9729002671958464</v>
+        <v>0.9730109277626843</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.990799347871149</v>
+        <v>0.9907831886651471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1807</v>
@@ -3724,19 +3724,19 @@
         <v>1887636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1874218</v>
+        <v>1875688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1897249</v>
+        <v>1897141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.985556256959805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9785506781722313</v>
+        <v>0.9793182678304496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9905754416591308</v>
+        <v>0.9905188081499684</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>15408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8787</v>
+        <v>9277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25043</v>
+        <v>24439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01870432996425306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01066662665325599</v>
+        <v>0.01126133710859929</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0304007165252227</v>
+        <v>0.02966788405521015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3849,19 +3849,19 @@
         <v>15701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8744</v>
+        <v>8647</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27660</v>
+        <v>26427</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02036244937816511</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01134040241159682</v>
+        <v>0.01121397450524604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03587256368267284</v>
+        <v>0.03427344557409315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3870,19 +3870,19 @@
         <v>31109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20922</v>
+        <v>20445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45112</v>
+        <v>43053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01950599347830598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01311844195232685</v>
+        <v>0.0128196815735114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02828636196965504</v>
+        <v>0.02699546630167892</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>808351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>798716</v>
+        <v>799320</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>814972</v>
+        <v>814482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9812956700357469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9695992834747774</v>
+        <v>0.9703321159447901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9893333733467443</v>
+        <v>0.9887386628914008</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>714</v>
@@ -3920,19 +3920,19 @@
         <v>755358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743399</v>
+        <v>744632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>762315</v>
+        <v>762412</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9796375506218349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9641274363173269</v>
+        <v>0.9657265544259064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9886595975884033</v>
+        <v>0.9887860254947539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1486</v>
@@ -3941,19 +3941,19 @@
         <v>1563709</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1549706</v>
+        <v>1551765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1573896</v>
+        <v>1574373</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9804940065216941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9717136380303449</v>
+        <v>0.973004533698321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9868815580476731</v>
+        <v>0.9871803184264886</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>9224</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4508</v>
+        <v>4424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17287</v>
+        <v>17113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01820493775034668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008896838127274941</v>
+        <v>0.008731459508014721</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03411666199167437</v>
+        <v>0.03377295767403848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4066,19 +4066,19 @@
         <v>9406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4317</v>
+        <v>4746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17764</v>
+        <v>17219</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01920850630617418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00881628703504826</v>
+        <v>0.009691765256104296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03627492593953743</v>
+        <v>0.03516297016385064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4087,19 +4087,19 @@
         <v>18631</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11726</v>
+        <v>11700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28843</v>
+        <v>28894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01869815917534294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01176879640208699</v>
+        <v>0.01174212221544785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02894713376112286</v>
+        <v>0.02899805909302131</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>497477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489414</v>
+        <v>489588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502193</v>
+        <v>502277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9817950622496533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9658833380083254</v>
+        <v>0.9662270423259615</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9911031618727248</v>
+        <v>0.9912685404919852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -4137,19 +4137,19 @@
         <v>480292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>471934</v>
+        <v>472479</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>485381</v>
+        <v>484952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9807914936938258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9637250740604626</v>
+        <v>0.9648370298361492</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9911837129649518</v>
+        <v>0.9903082347438955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>908</v>
@@ -4158,19 +4158,19 @@
         <v>977767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>967555</v>
+        <v>967504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>984672</v>
+        <v>984698</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9813018408246571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9710528662388775</v>
+        <v>0.9710019409069789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9882312035979131</v>
+        <v>0.9882578777845523</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>67210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51895</v>
+        <v>51913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85290</v>
+        <v>88026</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01995957660649977</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01541166791494865</v>
+        <v>0.01541693106161604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02532904138395209</v>
+        <v>0.02614143544793377</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -4283,19 +4283,19 @@
         <v>79964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63155</v>
+        <v>63445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100027</v>
+        <v>99721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02267320125717033</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01790728826181085</v>
+        <v>0.01798930214288171</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02836200000907767</v>
+        <v>0.02827533882273253</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -4304,19 +4304,19 @@
         <v>147173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123649</v>
+        <v>123372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171028</v>
+        <v>174024</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02134778187266979</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01793553214085977</v>
+        <v>0.01789536519100482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02480798553962541</v>
+        <v>0.02524257564812631</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3300072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3281992</v>
+        <v>3279256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3315387</v>
+        <v>3315369</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9800404233935003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9746709586160475</v>
+        <v>0.973858564552065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845883320850513</v>
+        <v>0.9845830689383835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3249</v>
@@ -4354,19 +4354,19 @@
         <v>3446828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3426765</v>
+        <v>3427071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3463637</v>
+        <v>3463347</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9773267987428297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9716379999909225</v>
+        <v>0.9717246611772675</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9820927117381892</v>
+        <v>0.9820106978571183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6391</v>
@@ -4375,19 +4375,19 @@
         <v>6746902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6723047</v>
+        <v>6720051</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6770426</v>
+        <v>6770703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9786522181273302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9751920144603745</v>
+        <v>0.9747574243518736</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9820644678591401</v>
+        <v>0.9821046348089951</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>19872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12123</v>
+        <v>12656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31596</v>
+        <v>32994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03984517900305491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02430729010639185</v>
+        <v>0.02537628391288904</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06335145912877584</v>
+        <v>0.0661545318689853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -4740,19 +4740,19 @@
         <v>35156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27071</v>
+        <v>26371</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47434</v>
+        <v>46159</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05637810071782991</v>
+        <v>0.05637810071782993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04341217701692269</v>
+        <v>0.04228906967899214</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07606783683389438</v>
+        <v>0.07402281442746185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -4761,19 +4761,19 @@
         <v>55029</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41177</v>
+        <v>43096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69180</v>
+        <v>71566</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04903115747698105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03668876947130417</v>
+        <v>0.038399282426333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06163997379812071</v>
+        <v>0.06376637210540731</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>478867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>467143</v>
+        <v>465745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>486616</v>
+        <v>486083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9601548209969449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9366485408712241</v>
+        <v>0.9338454681310148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9756927098936081</v>
+        <v>0.9746237160871108</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>809</v>
@@ -4811,19 +4811,19 @@
         <v>588424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>576146</v>
+        <v>577421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>596509</v>
+        <v>597209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.94362189928217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9239321631661059</v>
+        <v>0.9259771855725382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9565878229830777</v>
+        <v>0.9577109303210078</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1246</v>
@@ -4832,19 +4832,19 @@
         <v>1067291</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1053140</v>
+        <v>1050754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1081143</v>
+        <v>1079224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9509688425230191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9383600262018794</v>
+        <v>0.9362336278945926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9633112305286956</v>
+        <v>0.9616007175736671</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>19835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12222</v>
+        <v>12188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31569</v>
+        <v>30709</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02066949029579493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01273614871732986</v>
+        <v>0.01270066251126548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03289645031259128</v>
+        <v>0.03200073812825568</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -4957,19 +4957,19 @@
         <v>35277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26288</v>
+        <v>26693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47016</v>
+        <v>46430</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03163147062302787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02357142664296527</v>
+        <v>0.02393437494692429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04215749810709485</v>
+        <v>0.04163177457428926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -4978,19 +4978,19 @@
         <v>55112</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43501</v>
+        <v>42576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72654</v>
+        <v>70572</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02656152287095633</v>
+        <v>0.02656152287095632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02096532590491226</v>
+        <v>0.02051944805648702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03501601375091365</v>
+        <v>0.03401251619037568</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>939807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>928073</v>
+        <v>928933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947420</v>
+        <v>947454</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9793305097042051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9671035496874077</v>
+        <v>0.9679992618717443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872638512826698</v>
+        <v>0.9872993374887343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1553</v>
@@ -5028,19 +5028,19 @@
         <v>1079969</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1068230</v>
+        <v>1068816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1088958</v>
+        <v>1088553</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.968368529376972</v>
+        <v>0.9683685293769723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9578425018929055</v>
+        <v>0.9583682254257108</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.976428573357035</v>
+        <v>0.9760656250530756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2442</v>
@@ -5049,19 +5049,19 @@
         <v>2019776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2002234</v>
+        <v>2004316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2031387</v>
+        <v>2032312</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9734384771290437</v>
+        <v>0.9734384771290436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9649839862490863</v>
+        <v>0.9659874838096242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9790346740950877</v>
+        <v>0.9794805519435129</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>23761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14325</v>
+        <v>15099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37900</v>
+        <v>39540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02270521625205095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01368853071536033</v>
+        <v>0.01442849219475954</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03621642596283105</v>
+        <v>0.03778411808378392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5174,19 +5174,19 @@
         <v>16634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10746</v>
+        <v>10772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24903</v>
+        <v>25695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01588279399822689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01026034821455972</v>
+        <v>0.01028548468752645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02377774237968117</v>
+        <v>0.02453472559221076</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -5195,19 +5195,19 @@
         <v>40395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29300</v>
+        <v>29679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56522</v>
+        <v>56665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01929265103210892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01399377825369405</v>
+        <v>0.01417461999016267</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02699515839650482</v>
+        <v>0.02706337539894429</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1022718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1008579</v>
+        <v>1006939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1032154</v>
+        <v>1031380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9772947837479491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.963783574037169</v>
+        <v>0.9622158819162162</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863114692846396</v>
+        <v>0.9855715078052405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1491</v>
@@ -5245,19 +5245,19 @@
         <v>1030676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1022407</v>
+        <v>1021615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1036564</v>
+        <v>1036538</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.984117206001773</v>
+        <v>0.9841172060017731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9762222576203189</v>
+        <v>0.9754652744077894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9897396517854402</v>
+        <v>0.9897145153124738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2499</v>
@@ -5266,19 +5266,19 @@
         <v>2053395</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2037268</v>
+        <v>2037125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2064490</v>
+        <v>2064111</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9807073489678909</v>
+        <v>0.9807073489678912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.973004841603495</v>
+        <v>0.9729366246010569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860062217463057</v>
+        <v>0.9858253800098374</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>17946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11150</v>
+        <v>11400</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27926</v>
+        <v>27779</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01838844369927918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01142495201775499</v>
+        <v>0.01168127469788383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0286144501967804</v>
+        <v>0.02846396580090549</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5391,19 +5391,19 @@
         <v>33950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24413</v>
+        <v>25725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45725</v>
+        <v>45797</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03736387971298189</v>
+        <v>0.0373638797129819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02686725242591019</v>
+        <v>0.0283113912044986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05032253434045032</v>
+        <v>0.0504017612571706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -5412,19 +5412,19 @@
         <v>51896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39739</v>
+        <v>40675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65626</v>
+        <v>66861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02753741038923222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02108625580049015</v>
+        <v>0.02158316418155631</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03482292686811258</v>
+        <v>0.03547811406862409</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>957983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>948003</v>
+        <v>948150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>964779</v>
+        <v>964529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9816115563007208</v>
+        <v>0.9816115563007207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9713855498032197</v>
+        <v>0.9715360341990945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988575047982245</v>
+        <v>0.9883187253021163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1276</v>
@@ -5462,19 +5462,19 @@
         <v>874692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>862917</v>
+        <v>862845</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>884229</v>
+        <v>882917</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9626361202870183</v>
+        <v>0.9626361202870181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9496774656595498</v>
+        <v>0.9495982387428293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9731327475740899</v>
+        <v>0.9716886087955015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2201</v>
@@ -5483,19 +5483,19 @@
         <v>1832675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1818945</v>
+        <v>1817710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1844832</v>
+        <v>1843896</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9724625896107678</v>
+        <v>0.9724625896107676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9651770731318875</v>
+        <v>0.9645218859313762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9789137441995099</v>
+        <v>0.9784168358184442</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>81414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65104</v>
+        <v>63876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103401</v>
+        <v>101545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02338952717133751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01870388120346467</v>
+        <v>0.01835107853692883</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02970631770161476</v>
+        <v>0.02917284467420395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>174</v>
@@ -5608,19 +5608,19 @@
         <v>121018</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103801</v>
+        <v>102004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>140360</v>
+        <v>141283</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03275372078151163</v>
+        <v>0.03275372078151164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02809388426362008</v>
+        <v>0.02760772187812349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03798884623367663</v>
+        <v>0.03823843753276015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -5629,19 +5629,19 @@
         <v>202432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>180101</v>
+        <v>175666</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231806</v>
+        <v>232472</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02821125328145477</v>
+        <v>0.02821125328145478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02509913992742617</v>
+        <v>0.02448118629019624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03230483629383387</v>
+        <v>0.03239774196858523</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3399375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3377388</v>
+        <v>3379244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3415685</v>
+        <v>3416913</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9766104728286624</v>
+        <v>0.9766104728286625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9702936822983852</v>
+        <v>0.970827155325796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9812961187965358</v>
+        <v>0.9816489214630711</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5129</v>
@@ -5679,19 +5679,19 @@
         <v>3573761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3554419</v>
+        <v>3553496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3590978</v>
+        <v>3592775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9672462792184884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9620111537663233</v>
+        <v>0.9617615624672403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9719061157363797</v>
+        <v>0.9723922781218766</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8388</v>
@@ -5700,19 +5700,19 @@
         <v>6973136</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6943762</v>
+        <v>6943096</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6995467</v>
+        <v>6999902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9717887467185452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9676951637061658</v>
+        <v>0.9676022580314148</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9749008600725737</v>
+        <v>0.9755188137098038</v>
       </c>
     </row>
     <row r="18">
